--- a/conf-core/src/test/resources/dataloader/slots-success-delete.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-success-delete.test.xlsx
@@ -132,10 +132,6 @@
     <t>DELETE PROPERTY</t>
   </si>
   <si>
-    <t>IMPORT_TEST_2
-IMPORT_TEST_3</t>
-  </si>
-  <si>
     <t>BPM1</t>
   </si>
   <si>
@@ -188,6 +184,9 @@
   </si>
   <si>
     <t>UNINSTALL DEVICE</t>
+  </si>
+  <si>
+    <t>IMPORT_TEST_2&gt;&gt;IMPORT_TEST_3</t>
   </si>
 </sst>
 </file>
@@ -334,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +349,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -743,38 +740,38 @@
     </row>
     <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -802,7 +799,7 @@
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -815,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,7 +826,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +840,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>32</v>
@@ -860,7 +857,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>33</v>
@@ -877,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
@@ -891,13 +888,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
@@ -911,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>26</v>
@@ -934,10 +931,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>30</v>
@@ -954,10 +951,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
@@ -974,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -988,28 +985,28 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1020,8 +1017,8 @@
         <v>34</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="7" t="s">
-        <v>37</v>
+      <c r="F22" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,14 +1029,14 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,12 +1051,12 @@
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -1077,20 +1074,20 @@
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
